--- a/data_year/zb/文化/引进和输出版权情况/输出电子出版物版权总数.xlsx
+++ b/data_year/zb/文化/引进和输出版权情况/输出电子出版物版权总数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,6 +952,53 @@
         <v>736</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>228</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>211</v>
+      </c>
+      <c r="F13" t="n">
+        <v>32</v>
+      </c>
+      <c r="G13" t="n">
+        <v>110</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>27</v>
+      </c>
+      <c r="L13" t="n">
+        <v>29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>38</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>714</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
